--- a/Political Bias - News Sources.xlsx
+++ b/Political Bias - News Sources.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="52" documentId="8_{3DE65FF5-20D6-4797-8E9C-D13597384973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD1A284-C756-4796-A3B0-E1073624ED97}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{C0002AC6-6B47-40DD-B636-7C18FDC21726}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0002AC6-6B47-40DD-B636-7C18FDC21726}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B127911-C1C4-4EF3-8DCD-C85CE9670ABA}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2078,5 +2078,6 @@
   <autoFilter ref="A1:G44" xr:uid="{5B127911-C1C4-4EF3-8DCD-C85CE9670ABA}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>